--- a/config-示例.xlsx
+++ b/config-示例.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26865" windowHeight="13140"/>
+    <workbookView windowWidth="26865" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="结算协议" sheetId="1" r:id="rId1"/>
+    <sheet name="结算申报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>框架协议名称</t>
   </si>
@@ -101,6 +102,78 @@
   </si>
   <si>
     <t>深圳某某技术有限公司</t>
+  </si>
+  <si>
+    <t>合同名称（结尾不加“合同”二字）</t>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>结算申报日期</t>
+  </si>
+  <si>
+    <t>合同金额</t>
+  </si>
+  <si>
+    <t>已开发票金额</t>
+  </si>
+  <si>
+    <t>上海XXXX装修改造工程施工</t>
+  </si>
+  <si>
+    <t>HT20140000001</t>
+  </si>
+  <si>
+    <t>上海XXXX装修改造</t>
+  </si>
+  <si>
+    <t>上海XXXX有限公司</t>
+  </si>
+  <si>
+    <t>北京XXXX有限公司</t>
+  </si>
+  <si>
+    <t>上海XXXX机电工程施工</t>
+  </si>
+  <si>
+    <t>JD2023001</t>
+  </si>
+  <si>
+    <t>上海XXXX机电</t>
+  </si>
+  <si>
+    <t>北京XXXX结构工程施工</t>
+  </si>
+  <si>
+    <t>SG1411001</t>
+  </si>
+  <si>
+    <t>北京XXXX结构</t>
+  </si>
+  <si>
+    <t>西安XXXX工程施工</t>
+  </si>
+  <si>
+    <t>010100222001</t>
+  </si>
+  <si>
+    <t>西安XXXX</t>
+  </si>
+  <si>
+    <t>北京XXXX有限公司西安分公司</t>
+  </si>
+  <si>
+    <t>南昌XXXX装修改造工程施工</t>
+  </si>
+  <si>
+    <t>NC123456001</t>
+  </si>
+  <si>
+    <t>南昌XXXX装修改造</t>
+  </si>
+  <si>
+    <t>XXXX股份有限公司</t>
   </si>
 </sst>
 </file>
@@ -126,14 +199,14 @@
       <i/>
       <sz val="13.5"/>
       <color rgb="FF93A1A1"/>
-      <name val="Consolas"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="13.5"/>
       <color rgb="FF93A1A1"/>
-      <name val="宋体"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -751,6 +824,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1103,7 +1179,7 @@
   <sheetPr/>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K4"/>
     </sheetView>
   </sheetViews>
@@ -1127,52 +1203,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="54" spans="1:16">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1331,4 +1407,223 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="10" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="36" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45444</v>
+      </c>
+      <c r="G2" s="5">
+        <v>253939.61</v>
+      </c>
+      <c r="H2" s="5">
+        <v>253939.61</v>
+      </c>
+      <c r="I2" s="5">
+        <v>228545.65</v>
+      </c>
+      <c r="J2" s="5">
+        <v>228545.65</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45458</v>
+      </c>
+      <c r="G3" s="5">
+        <v>59576.15</v>
+      </c>
+      <c r="H3" s="5">
+        <v>59576.15</v>
+      </c>
+      <c r="I3" s="5">
+        <v>53618.54</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45454</v>
+      </c>
+      <c r="G4" s="5">
+        <v>259389.48</v>
+      </c>
+      <c r="H4" s="5">
+        <v>259389.48</v>
+      </c>
+      <c r="I4" s="5">
+        <v>233450.53</v>
+      </c>
+      <c r="J4" s="5">
+        <v>233000</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="40.5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45460</v>
+      </c>
+      <c r="G5" s="5">
+        <v>414353.37</v>
+      </c>
+      <c r="H5" s="5">
+        <v>414353.37</v>
+      </c>
+      <c r="I5" s="5">
+        <v>372918.03</v>
+      </c>
+      <c r="J5" s="5">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45464</v>
+      </c>
+      <c r="G6" s="5">
+        <v>64115.38</v>
+      </c>
+      <c r="H6" s="5">
+        <v>64115.38</v>
+      </c>
+      <c r="I6" s="5">
+        <v>57703.84</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>